--- a/EnterprisePortal/TC_CreateExpenseReport/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_CreateExpenseReport/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="135">
   <si>
     <t>Flow</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>CreateExpenseReport</t>
+  </si>
+  <si>
+    <t>DoEnsureVisible</t>
   </si>
 </sst>
 </file>
@@ -1994,6 +1997,24 @@
     </row>
     <row r="26">
       <c r="A26" s="175"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="65" t="s">

--- a/EnterprisePortal/TC_CreateExpenseReport/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_CreateExpenseReport/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
   <si>
     <t>Flow</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t>DoEnsureVisible</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>ClickRibbon</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
   </si>
 </sst>
 </file>
@@ -439,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="563">
+  <borders count="573">
     <border>
       <left/>
       <right/>
@@ -1009,11 +1021,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1577,6 +1599,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1807,251 +1839,283 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="558"/>
+      <c r="A15" s="555" t="s">
+        <v>110</v>
+      </c>
       <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="556"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="568"/>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="559"/>
-      <c r="B16" t="s">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="175"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="72"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="560"/>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="561"/>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="555" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="556"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="174"/>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="175"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="68" t="s">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="72"/>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="169" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -2064,109 +2128,79 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="166" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="180"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="168" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="545"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="169" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="551"/>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="180"/>
+      <c r="A33" s="546"/>
     </row>
     <row r="34">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="173" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
@@ -2182,126 +2216,134 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="545"/>
-      <c r="B35" t="s">
+      <c r="A35" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
+      <c r="C35" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="112"/>
     </row>
     <row r="36">
-      <c r="A36" s="551"/>
+      <c r="A36" s="190" t="s">
+        <v>7</v>
+      </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
         <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="546"/>
+      <c r="A37" s="191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="192" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="112"/>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="190" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" t="s">
-        <v>117</v>
-      </c>
+      <c r="A40" s="196"/>
     </row>
     <row r="41">
-      <c r="A41" s="191" t="s">
-        <v>7</v>
-      </c>
+      <c r="A41" s="197"/>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -2314,243 +2356,173 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="192" t="s">
-        <v>7</v>
-      </c>
+      <c r="A42" s="202"/>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="193" t="s">
-        <v>7</v>
-      </c>
+      <c r="A43" s="203"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="204"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="205"/>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="198"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="196"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="197"/>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202"/>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="203"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>78</v>
-      </c>
+      <c r="E47" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="120"/>
     </row>
     <row r="48">
-      <c r="A48" s="204"/>
+      <c r="A48" s="194" t="s">
+        <v>7</v>
+      </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="205"/>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>78</v>
-      </c>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
     </row>
     <row r="50">
-      <c r="A50" s="198"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
     </row>
     <row r="51">
-      <c r="A51" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="120"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="144"/>
     </row>
     <row r="52">
-      <c r="A52" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="152"/>
     </row>
     <row r="53">
-      <c r="A53" s="121"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="129"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="136"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="137"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="144"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="145"/>
-      <c r="B56" s="146"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="152"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="153"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="160"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2697,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
@@ -2713,7 +2685,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="527"/>
+      <c r="A10" s="571"/>
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -2728,7 +2700,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="528"/>
+      <c r="A11" s="572"/>
       <c r="B11" t="s">
         <v>26</v>
       </c>
